--- a/Schedule/BCIO-schedule-hierarchy.xlsx
+++ b/Schedule/BCIO-schedule-hierarchy.xlsx
@@ -442,44 +442,44 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,310 +489,365 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050506</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BCI temporal part duration statistic</t>
+          <t>BCI temporal part</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
+          <t>A &lt;planned process&gt; that is a part of a BCI.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A planned part of an intervention</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050514</t>
+          <t>BCIO:008510</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>minimum BCI temporal part duration</t>
+          <t>BCI contact event</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
+          <t>A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A counselling session; An online chat session; An advertisement display.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050508</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>BFO:0000003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>maximum BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050510</t>
+          <t>BFO:0000008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>mean BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050512</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>median BCI temporal part duration</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008560</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>number of BCI contact events</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is the number of contact events in a BCI temporal part.</t>
+          <t>A &lt;temporal interval&gt; between the start and end of a BCI.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The planned total number of sessions or digital contacts in an intervention or part</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>one; 6; 12; twenty</t>
+          <t>6 weeks; 2 months; 1 year</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>The planned duration of an intervention</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050904</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BCI contact event number statistic</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
+          <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 hour; 30 minutes; 2 minutes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050912</t>
+          <t>BCIO:008575</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>mean BCI contact event number</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>interval between BCI temporal parts</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
+          <t>A &lt;temporal interval&gt; between the end of one BCI temporal part and the beginning of a subsequent BCI temporal part.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>"2 weeks"; "1 day"</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>The planned duration of a break between two parts of an intervention</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050907</t>
+          <t>BCIO:008545</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event number</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
+          <t>A &lt;temporal interval&gt; that is the total of intervention temporal parts within a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>150 minutes; 12 hours</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050497</t>
+          <t>BCIO:008565</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>median BCI contact event number</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
+          <t>A &lt;temporal interval&gt; between the start and end of an intervention temporal part.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6 weeks; 2 weeks</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>The planned duration of a part of an intervention</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050502</t>
+          <t>BCIO:008530</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>minimum BCI contact event number</t>
+          <t>temporal reference associated with the intervention</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
+          <t>A &lt;temporal region&gt; against which a BCI  temporal part is referenced.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050516</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency statistic</t>
-        </is>
-      </c>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050517</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>maximum BCI temporal part frequency statistic</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>number of BCI contact events</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
+          <t>A &lt;data item&gt; that is the number of contact events in a BCI temporal part.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>one; 6; 12; twenty</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>The planned total number of sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050519</t>
+          <t>BCIO:050516</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>median BCI temporal part frequency statistic</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
+          <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050520</t>
+          <t>BCIO:050519</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>minimum BCI temporal part frequency statistic</t>
+          <t>median BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
     </row>
@@ -819,938 +874,833 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050504</t>
+          <t>BCIO:050517</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>total BCI contact event duration statistic</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>maximum BCI temporal part frequency statistic</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050503</t>
+          <t>BCIO:050520</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>minimum total BCI contact event duration</t>
+          <t>minimum BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050495</t>
+          <t>BCIO:050904</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>mean total BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BCI contact event number statistic</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
+          <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050910</t>
+          <t>BCIO:050907</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>maximum total BCI contact event duration</t>
+          <t>maximum BCI contact event number</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
+          <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050499</t>
+          <t>BCIO:050502</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>median total BCI contact event duration</t>
+          <t>minimum BCI contact event number</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
+          <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:008710</t>
+          <t>BCIO:050912</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>mean BCI contact event number</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>How often intervention parts are planned to occur</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Participants took part in 90 minutes of PA "weekly"</t>
+          <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050905</t>
+          <t>BCIO:050497</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BCI duration statistic</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>median BCI contact event number</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
+          <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050908</t>
+          <t>BCIO:050903</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>maximum BCI duration</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BCI contact event frequency statistic</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
+          <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050501</t>
+          <t>BCIO:050911</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>minimum BCI duration</t>
+          <t>mean BCI contact event frequency</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050909</t>
+          <t>BCIO:050906</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>mean BCI duration</t>
+          <t>maximum BCI contact event frequency</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050498</t>
+          <t>BCIO:050496</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>median BCI duration</t>
+          <t>median BCI contact event frequency</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050505</t>
+          <t>BCIO:050500</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>BCI contact event duration statistic</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>minimum BCI contact event frequency</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050507</t>
+          <t>BCIO:050504</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration statistic</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
+          <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050511</t>
+          <t>BCIO:050495</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>median BCI contact event duration</t>
+          <t>mean total BCI contact event duration</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
+          <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050509</t>
+          <t>BCIO:050910</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>mean BCI contact event duration</t>
+          <t>maximum total BCI contact event duration</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
+          <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050513</t>
+          <t>BCIO:050503</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>minimum BCI contact event duration</t>
+          <t>minimum total BCI contact event duration</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
+          <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:050903</t>
+          <t>BCIO:050499</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency statistic</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>median total BCI contact event duration</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
+          <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050906</t>
+          <t>BCIO:050506</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration statistic</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
+          <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050496</t>
+          <t>BCIO:050510</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>median BCI contact event frequency</t>
+          <t>mean BCI temporal part duration</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
+          <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050500</t>
+          <t>BCIO:050512</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>minimum BCI contact event frequency</t>
+          <t>median BCI temporal part duration</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
+          <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050911</t>
+          <t>BCIO:050508</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>mean BCI contact event frequency</t>
+          <t>maximum BCI temporal part duration</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
+          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:008700</t>
+          <t>BCIO:050514</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>minimum BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; about the number times a contact event occurs per unit of time.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>How often intervention sessions or digital contacts are planned to occur</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>twice a week; daily; one a week</t>
+          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OBI:0000011</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>BCIO:050505</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BCI contact event duration statistic</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:050507</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>BCI temporal part</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>maximum BCI contact event duration</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>A &lt;planned process&gt; that is a part of a BCI.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>A planned part of an intervention</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:008510</t>
+          <t>BCIO:050513</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BCI contact event</t>
+          <t>minimum BCI contact event duration</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>A counselling session; An online chat session; An advertisement display.</t>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
-        </is>
-      </c>
+          <t>BCIO:050511</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>median BCI contact event duration</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PATO:0000044</t>
+          <t>BCIO:050509</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>mean BCI contact event duration</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>BCIO:008710</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BCI temporal part frequency</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>How often intervention parts are planned to occur</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_008000</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>BCIO:050905</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BCI duration statistic</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BFO:0000003</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
+          <t>BCIO:050908</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>maximum BCI duration</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BFO:0000008</t>
+          <t>BCIO:050909</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>mean BCI duration</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:008530</t>
+          <t>BCIO:050501</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>temporal reference associated with the intervention</t>
+          <t>minimum BCI duration</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A &lt;temporal region&gt; against which a BCI  temporal part is referenced.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
+          <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:050498</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>median BCI duration</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:008565</t>
+          <t>BCIO:008700</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BCI contact event frequency</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A &lt;temporal interval&gt; between the start and end of an intervention temporal part.</t>
+          <t>A &lt;data item&gt; about the number times a contact event occurs per unit of time.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>The planned duration of a part of an intervention</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>6 weeks; 2 weeks</t>
+          <t>twice a week; daily; one a week</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>How often intervention sessions or digital contacts are planned to occur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:008575</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>BCIO:003000</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>interval between BCI temporal parts</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>A &lt;temporal interval&gt; between the end of one BCI temporal part and the beginning of a subsequent BCI temporal part.</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>The planned duration of a break between two parts of an intervention</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>"2 weeks"; "1 day"</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:008545</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>BCIO:050315</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>total BCI contact event duration</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>A &lt;temporal interval&gt; that is the total of intervention temporal parts within a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>150 minutes; 12 hours</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:008525</t>
+          <t>BCIO:008500</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>1 hour; 30 minutes; 2 minutes</t>
+          <t>A &lt;BCI attribute&gt; that is its temporal organisation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>BCI duration</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>irregular intervention schedule</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A &lt;temporal interval&gt; between the start and end of a BCI.</t>
+          <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of contact events change over the course of a temporal part or BCI.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>The planned duration of an intervention</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>6 weeks; 2 months; 1 year</t>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050315</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
-        </is>
-      </c>
+          <t>BCIO:008535</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>regular intervention schedule</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:008500</t>
+          <t>BCIO:008580</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>order of BCI temporal parts</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>A &lt;BCI attribute&gt; that is its temporal organisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of contact events change over the course of a temporal part or BCI.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>BCIO:008580</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>order of BCI temporal parts</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>A &lt;BCI attribute&gt; that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1760,6 +1710,56 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BCIO:008000</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_008000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PATO:0000044</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Schedule/BCIO-schedule-hierarchy.xlsx
+++ b/Schedule/BCIO-schedule-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:Q323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,37 +435,42 @@
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr">
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
         </is>
@@ -474,127 +479,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OBI:0000011</t>
+          <t>GO:0046959</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
+          <t>habituation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioral response to a repeated stimulus. This is exemplified by the failure of a person to show a startle response to a loud noise that has been repeatedly presented.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BCI temporal part</t>
-        </is>
-      </c>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A &lt;planned process&gt; that is a part of a BCI.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>A planned part of an intervention</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>An increased in a behavioral response to a repeated stimulus. For example, a shock to the tail of the marine snail Aplysia, to which the snail responds by withdrawing its gill, will result in increased gill withdrawal the next time the skin is touched.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:008510</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>BFO:0000003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BCI contact event</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A counselling session; An online chat session; An advertisement display.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>An entity that has temporal parts and that happens, unfolds or develops through time.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BFO:0000003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000008</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -602,29 +637,24 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BCI duration</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A &lt;temporal interval&gt; between the start and end of a BCI.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6 weeks; 2 months; 1 year</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>The planned duration of an intervention</t>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:008525</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -632,54 +662,49 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BCI contact event duration</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1 hour; 30 minutes; 2 minutes</t>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:008575</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>interval between BCI temporal parts</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A &lt;temporal interval&gt; between the end of one BCI temporal part and the beginning of a subsequent BCI temporal part.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>"2 weeks"; "1 day"</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>The planned duration of a break between two parts of an intervention</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:008545</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -687,904 +712,1081 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>total BCI contact event duration</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A &lt;temporal interval&gt; that is the total of intervention temporal parts within a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>150 minutes; 12 hours</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:008565</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A &lt;temporal interval&gt; between the start and end of an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>6 weeks; 2 weeks</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>The planned duration of a part of an intervention</t>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:008530</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>temporal reference associated with the intervention</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A &lt;temporal region&gt; against which a BCI  temporal part is referenced.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A process that realizes a plan which is the concretization of a plan specification.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
-        </is>
-      </c>
+          <t>SDGIO:00010001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>education process</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>A planned process wherein knowledge and skill is imparted.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>number of BCI contact events</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is the number of contact events in a BCI temporal part.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>one; 6; 12; twenty</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>The planned total number of sessions or digital contacts in an intervention or part</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050516</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency statistic</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050519</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>median BCI temporal part frequency statistic</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BCI temporal part</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>A &lt;planned process&gt; that is a part of a BCI.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>A planned part of an intervention</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050518</t>
+          <t>BCIO:008510</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>mean BCI temporal part frequency statistic</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the average value calculated from a collection of BCI temporal part frequencies.</t>
+          <t>BCI contact event</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>A counselling session; An online chat session; An advertisement display.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050517</t>
+          <t>SEPIO:0000004</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>maximum BCI temporal part frequency statistic</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>research activity</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>A planned process executed in the performance of scientific research wherein systematic investigations are performed to establish facts and reach new conclusions about phenomena in the world.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050520</t>
+          <t>SEPIO:0000125</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>minimum BCI temporal part frequency statistic</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050904</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BCI contact event number statistic</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intervention evaluation study</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050907</t>
+          <t>BCIO:018000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event number</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050502</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>minimum BCI contact event number</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>behaviour change intervention comparison evaluation study</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050912</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>mean BCI contact event number</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050497</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>median BCI contact event number</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050903</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency statistic</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050911</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>mean BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050906</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event frequency</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050496</t>
+          <t>BCIO:007000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>median BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
+          <t>behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050500</t>
+          <t>BFO:0000182</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>minimum BCI contact event frequency</t>
+          <t>history</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050504</t>
+          <t>GO:0008150</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>total BCI contact event duration statistic</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>biological_process</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>A biological process is the execution of a genetically-encoded biological module or program. It consists of all the steps required to achieve the specific biological objective of the module. A biological process is accomplished by a particular set of molecular functions carried out by specific gene products (or macromolecular complexes), often in a highly regulated manner and in a particular temporal sequence.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050495</t>
+          <t>GO:0032501</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>mean total BCI contact event duration</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>multicellular organismal process</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Any biological process, occurring at the level of a multicellular organism, pertinent to its function.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050910</t>
+          <t>GO:0003008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>maximum total BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
+          <t>system process</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A multicellular organismal process carried out by any of the organs or tissues in an organ system. An organ system is a regularly interacting or interdependent group of organs or tissues that work together to carry out a biological objective.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050503</t>
+          <t>GO:0050877</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>minimum total BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>nervous system process</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>An organ system process carried out by any of the organs or tissues of the neurological system.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:050499</t>
+          <t>GO:0050890</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>median total BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>cognition</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>The operation of the mind by which an organism becomes aware of objects of thought or perception; it includes the mental activities associated with thinking, learning, and memory.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050506</t>
+          <t>GO:0007611</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BCI temporal part duration statistic</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>learning or memory</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>The acquisition and processing of information and/or the storage and retrieval of this information over time.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050510</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>mean BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli. The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050512</t>
+          <t>GO:0007610</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>median BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>The internally coordinated responses (actions or inactions) of animals (individuals or groups) to internal or external stimuli, via a mechanism that involves nervous system activity.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050508</t>
+          <t>GO:0051705</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>maximum BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>multi-organism behavior</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Any process in which an organism has a behavioral effect on another organism of the same or different species.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050514</t>
+          <t>MF:0000021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>minimum BCI temporal part duration</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>A process in which at least two human beings are agents.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050505</t>
+          <t>GO:0007611</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>BCI contact event duration statistic</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>learning or memory</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>The acquisition and processing of information and/or the storage and retrieval of this information over time.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050507</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event duration</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli. The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050513</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>minimum BCI contact event duration</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050511</t>
+          <t>BCIO:047001</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>median BCI contact event duration</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context event</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>An event which occurs during a behaviour change intervention temporal context.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050509</t>
+          <t>ADDICTO:0001303</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>mean BCI contact event duration</t>
+          <t>beneficial process</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>A process that produces a good or helpful outcome.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:008710</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>How often intervention parts are planned to occur</t>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050905</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>BCI duration statistic</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050908</t>
+          <t>BFO:0000144</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>maximum BCI duration</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050909</t>
+          <t>MF:0000017</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>mean BCI duration</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>consciousness</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Consciousness is an inseparable part of all mental processes. It is that part of the mental process that:
+a) confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and
+b) intends the object or event that the mental process is about, should such exist; i.e., it confers intentionality on the mental process.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050501</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>minimum BCI duration</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050498</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>median BCI duration</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:008700</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; about the number times a contact event occurs per unit of time.</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>twice a week; daily; one a week</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>How often intervention sessions or digital contacts are planned to occur</t>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_003000</t>
-        </is>
-      </c>
+          <t>BCIO:044000</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>behaviour change intervention style of delivery</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1592,62 +1794,72 @@
           <t>BCIO:050315</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050315</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>A process attribute whose bearer is a behaviour change intervention.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:008500</t>
+          <t>BCIO:009000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>A &lt;BCI attribute&gt; that is its temporal organisation</t>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>behaviour change intervention schedule of delivery</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:008540</t>
+          <t>BCIO:008500</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of contact events change over the course of a temporal part or BCI.</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>A &lt;BCI attribute&gt; that is its temporal organisation</t>
         </is>
       </c>
     </row>
@@ -1659,23 +1871,28 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
         <is>
           <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
         </is>
@@ -1684,23 +1901,63 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:008580</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>order of BCI temporal parts</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>irregular intervention schedule</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>A &lt;BCI schedule of delivery&gt; in which the frequency and duration of contact events change over the course of a temporal part or BCI.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BCIO:008580</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>order of BCI temporal parts</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
         <is>
           <t>A &lt;BCI attribute&gt; that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1710,53 +1967,6629 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>BCIO:008000</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_008000</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-    </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
-        </is>
-      </c>
+          <t>BCIO:011000</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PATO:0000044</t>
+          <t>BCIO:032000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>behaviour change intervention tailoring</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BCIO:022000</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>behaviour change intervention dose</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>A BCI content attribute that is its amount.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>OGMS:0000060</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>A process in which at least one bodily component of an organism participates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MFOEM:000003</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>physiological process involved in an emotion</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001317</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>abstinence violation effect</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>A bodily process in which a behavioural lapse results in relapse through negative emotions attributed by the person to the lapse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MF:0000018</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>the process whereby relevant aspects of our mental experience are focused on specific targets</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MFOEM:000195</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>A mental process that has positive or negative valence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MFOEM:000006</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001127</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>desire</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>A subjective emotional feeling which consists of a strong wanting or wishing to have something or for something to happen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of a need for sleep.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MFOEM:000112</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>feeling exhausted</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Feeling tired to an extremely strong degree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>feeling of pain</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: 
+(a) activation of the nociceptive system and associated emotion generating brain components of S, and 
+(b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MFOEM:000109</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>feeling energetic</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000511</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>subjective craving</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that is a strong feeling of desire or a strong feeling of urge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MFOEM:000124</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>feeling nervous</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000377</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>feeling of need satisfaction</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>A subjective emotional feeling involving positive affect associated with reduction in a feeling of need.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MFOEM:000205</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>feeling of hunger</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MFOEM:000107</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>feeling at ease</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MFOEM:000019</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MFOEM:000021</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>animal-nature disgust</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Disgust elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay. [Source: OCEAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to. [Source: OCEAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations. [Source: OCEAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MFOEM:000020</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>core disgust</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears. [Source: OCEAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MFOEM:000056</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MFOEM:000053</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>guilt</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MFOEM:000028</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>anxiety</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>A negative emotion that is aversive and provoked by the prospect of distal threat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>pleasure (emotion)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MFOEM:000009</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>anger</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anger is a negative emotion, characterised by feelings of unpleasantness and high arousal, in the form of antagonistic feelings and action tendencies. [Source: OCEAS]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event. [Source: OCEAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Genuss</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MFOEM:000032</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>An emotion caused by encountering unexpected events.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MFOEM:000210</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Surprise with a negative valence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MFOEM:000212</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>negative emotion</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>A negative emotion is an emotion that has a negative valence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MFOEM:000033</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli. [Source: OCEAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MFOEM:000193</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>mood process</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>A mood process is a mental process that involves affect (is valenced), and gives rise to a number of behavioural dispositions, but unlike an emotion has no object. Moods are usually longer-lived than emotion processes, but there are exceptions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MF:0000012</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>A mental process that is the psychological and physiological state of being awake and reactive to stimuli.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MFOEM:000002</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>affective appraisal process</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>A mental process that gives rise to an appraisal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MF:0000019</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>A mental process which is 
+a) produced by a causal process involving a part of the environment of the organism, and 
+b) is experienced by the organism as being so caused, and 
+c) in which the relevant part of the environment is thereby represented to the organism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MF:0000015</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>imagination</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>A mental process that manipulates mental images and words that go beyond mere memory and thoughts about the objects and entities that the person has encountered, to visualise or consider entities and states of affairs that the person has never encountered and which may not yet exist or obtain in the world. Imagination is the capacity to produce images, ideas and sensations in the mind without any immediate input of the senses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MF:0000013</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>a mental process that involves the manipulation of mental language and/or mental images</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MF:0000088</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>subliminal process</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>A mental process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001318</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>addiction development</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>A bodily process in which addiction strength is increased.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>GO:0007610</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>The internally coordinated responses (actions or inactions) of animals (individuals or groups) to internal or external stimuli, via a mechanism that involves nervous system activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GO:0051705</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>multi-organism behavior</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Any process in which an organism has a behavioral effect on another organism of the same or different species.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MF:0000021</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>A process in which at least two human beings are agents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GO:0007611</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>learning or memory</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>The acquisition and processing of information and/or the storage and retrieval of this information over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli. The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task).</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BCIO:006000</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>A process that is causally active in the relationship between a BCI scenario and its outcome behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BCIO:050210</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BCIO:050211</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001135</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>alcohol consumption pattern</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>A substance use behaviour pattern in which the substance used is alcohol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001350</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>binge behaviour session</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>A consumption behaviour pattern in which the behaviour is repeated in a session to an extent that is excessive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BFO:0000008</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BCIO:008530</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>temporal reference associated with the intervention</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>A &lt;temporal region&gt; against which a BCI  temporal part is referenced.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BCIO:008525</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>1 hour; 30 minutes; 2 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BCIO:008575</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>interval between BCI temporal parts</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>A &lt;temporal interval&gt; between the end of one BCI temporal part and the beginning of a subsequent BCI temporal part.</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>"2 weeks"; "1 day"</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>The planned duration of a break between two parts of an intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BCIO:008545</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>A &lt;temporal interval&gt; that is the total of intervention temporal parts within a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>150 minutes; 12 hours</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>A &lt;temporal interval&gt; between the start and end of a BCI.</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>6 weeks; 2 months; 1 year</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>The planned duration of an intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BCIO:008565</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>A &lt;temporal interval&gt; between the start and end of an intervention temporal part.</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>6 weeks; 2 weeks</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>The planned duration of a part of an intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BFO:0000002</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>continuant</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>An entity that exists in full at any time in which it exists at all, persists through time while maintaining its identity and has no temporal parts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BFO:0000141</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BFO:0000006</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>UBERON:0001062</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>anatomical entity</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Biological entity that is either an individual member of a biological species or constitutes the structural organization of an individual member of a biological species.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>UBERON:0000061</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>anatomical structure</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Material anatomical entity that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ENVO:01001813</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ENVO:00000010</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>transport feature</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>A construction which enables the movement of humans, their animals or their vehicles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ENVO:01001272</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>constructed pavement</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>A construction which comprises a durable surface layer overlying a solid surface intended to sustain vehicular or foot traffic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>An open way for the passage of vehicles, persons, or animals on land.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>OGMS:0000087</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>extended organism</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>An object aggregate consisting of an organism and all material entities located within the organism, overlapping the organism, or occupying sites formed in part by the organism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>human being</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>An extended organism that is a member of the species Homo sapiens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001050</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>A person who is between the ages of  13 and 19.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000352</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>A person who has reached maturity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>OMRSE:00000076</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>household</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of that housing unit's residence function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BFO:0000024</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>fiat object part</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ENVO:01000408</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>environmental zone</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>A site which has its extent determined by the presence or influence of one or more components of an environmental system or the processes occurring therein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ENVO:01001199</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>terrestrial environmental zone</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>An environmental zone which is bounded by material parts of a land mass or the atmosphere or space adjacent to it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ENVO:01001305</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>vegetated area</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>A vegetated area is a geographic feature which has ground cover dominated by plant communities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ENVO:00000109</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>woodland area</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Land having a cover of trees, shrubs, or both.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>forested area</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>An area with a high density of trees. A small forest may be called a wood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ENVO:01000813</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>astronomical body part</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>A material part of an astronomical body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ENVO:01001199</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>terrestrial environmental zone</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>An environmental zone which is bounded by material parts of a land mass or the atmosphere or space adjacent to it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ENVO:01001305</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>vegetated area</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>A vegetated area is a geographic feature which has ground cover dominated by plant communities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ENVO:00000109</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>woodland area</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Land having a cover of trees, shrubs, or both.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>forested area</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>An area with a high density of trees. A small forest may be called a wood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ENVO:01001784</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>compound astronomical body part</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>A part of an astronomical body which is composed of a continuous medium bearing liquid, gaseous, and solid material in variable quantities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ENVO:00000191</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>solid astronomical body part</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>A part of an astronomical body which is primarily composed of solid material.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ENVO:01001886</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>landform</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>A solid astronomical body part which has been formed from and is composed primarily of the matter of that astronomical body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ENVO:01001884</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>surface landform</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>A landform which occurs on the surface of an astronomical body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ENVO:00000000</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>geographic feature</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>An astrononmical body part which delimited by physical discontinuities with its surroundings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ENVO:00000002</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>anthropogenic geographic feature</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>An anthropogenic geographic feature is a geographic feature resulting from the influence of human beings on nature.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BFO:0000027</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BCIO:005000</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>behaviour change intervention context</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BCIO:014000</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>behaviour change intervention setting</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>An aggregate of entities that form the environment in which a BCI is provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BCIO:041000</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>An object aggregate that consists of two or more people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BCIO:015095</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>intervention population</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>A human population who are exposed to an intervention.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BCIO:015000</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>behaviour change intervention population</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>An intervention population who are exposed to a behaviour change intervention.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BCIO:029000</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>behaviour change intervention social setting</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>An aggregate of people with whom a BCI population interacts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BCIO:050551</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>A population whose behaviour is studied in a research study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BCIO:031000</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study sample</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SDGIO:00010026</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>unemployed</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>A person or population that is not employed, but eligible for and currently seeking employment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to environ one or more material entities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BCIO:026000</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>behaviour change intervention physical setting</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>A physical environment in which a BCI is delivered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ENVO:01001110</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>ecosystem</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>An environmental system which includes both living and non-living components.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BFO:0000030</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>OMRSE:00000114</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>OMRSE:00000150</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>community living health care facility</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>a health care facility that also bears a residence function and thus one in which the patients are also residents of the facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>rehabilitation facility</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>A facility to assist in physical or addiction recovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>A health care facility that bears the function to provide acute and intensive healthcare services and that is run by a hospital organization and is the bearer of a hospital function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>établissement de pharmacologie</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>OMRSE:00000064</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>A facility that is run by a school organization and is the bearer of a school function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>A facility which supports the undertaking of scientific research or measurements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SDGIO:00010028</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>A person or organization that participates in an ownership process wherein they realize their role as owner by exercising their right to use, sell, rent, or gift an object.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>UBERON:0000061</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>anatomical structure</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Material anatomical entity that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BFO:0000019</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>SDGIO:00010029</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>employment status</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>A quality inhering in a person by virtue of that person bearing a role realised in an employment process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MF:0000074</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>A bodily quality is a quality that inheres in some extended organism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000179</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>personal stake</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>A personal attribute in relation to an activity such that an outcome of the activity has value for the person.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001140</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>addiction strength</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>A personal attribute that is the strength of motivation experienced to engage in the behaviour to which the person is addicted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BFO:0000017</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>realizable entity</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant  that inheres in continuant  entities and are not exhibited in full at every time in which it inheres in an entity or group of entities. The exhibition or actualization of a realizable entity is a particular manifestation, functioning or process that occurs under certain circumstances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>OPMI:0000326</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>OPMI:0000121</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>socioeconomic status</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>OBI:0000260</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BCIO:028000</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario plan</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>A plan that is realized in a BCI scenario process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BCIO:024000</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study plan</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>A plan for a BCI evaluation study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000349</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>addiction</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>MF:0000041</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent a proposition to be true.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>MFOEM:000007</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001378</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>drug withdrawal syndrome</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>A bodily disposition to undergo pathological processes characterized by physiological or psychological dysfunction that exists in an organism because of homeostatic disruption resulting from the cessation or reduction of repeated drug exposure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MF:0000203</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>personality trait</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A personality trait is an individual disposition or predisposition that forms part of an overall personality and is realized in repeated occurrences of a specific mental process type or behavioural profile. </t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>MFOEM:000204</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>emotional personality trait</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An emotional personality trait is a personality trait, a part of an overall personality, which predisposes the individual to repeated occurrences of a characteristic emotional process. </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>MF:0000043</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>MF:0000048</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>A personal capability that includes mental processes in its realisation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>MF:0000050</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>linguistic capability</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>MF:0000202</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>A personality is a complex sum of dispositions and predispositions towards mental processes and behaviour. It inheres in a person.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>A realizable entity  the manifestation of which brings about some result or end that is not essential to a continuant  in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant  in some kinds of natural, social or institutional contexts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BCIO:010000</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>OMRSE:00000048</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>material entity role</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>OMRSE:00002072</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>role in human social processes</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>A role that inheres in some entity that is realized in a social act.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>OBI:0000093</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>patient role</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>a role which inheres in a person and is realized by the process of being under the care of a physician or health care provider</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BCIO:030000</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PATO:0000044</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>MF:0000031</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>A representation which specifically depends on an anatomical structure in the cognitive system of an organism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000381</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>A cognitive representation of themselves by a person or a group about themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000715</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>group identity</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>An identity that a group holds about itself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000399</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>An identity that a person has about themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001377</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>negative self-identity</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>A self identity that includes a negative self-appraisal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001087</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>social identity</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>A self-identity that represents a relation between oneself and another person or group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>MFOEM:000005</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>affective apraisal</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>A cognitive representation of the emotional relevance of an object or event to the organism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>MFOEM:000103</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>appraisal of dangerousness</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>An affective appraisal which represents an evaluation of how threatening an object or situation is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>MFOEM:000072</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>appraisal of goal importance</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>An affective appraisal that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>MFOEM:000226</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>appraisal of desirability</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>An affective appraisal of the extent to which something is good or beneficial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>MFOEM:000085</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>appraisal of desirability of consequences</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>An appraisal of desirability that represents an evaluation of the desirability of the expected consequences of an event.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>MFOEM:000061</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>appraisal of pleasantness</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>An affective appraisal that represents an evaluation of the pleasantness of an object or event.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>MFOEM:000091</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>appraisal of avoidability of consequences</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>An affective appraisal which represents a judgement about how avoidable the expected consequences of an event will be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>MFOEM:000075</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>appraisal of causal agency</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>An affective appraisal that represents an evaluation of who or what caused an event.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>MFOEM:000076</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>appraisal as caused by self</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>An appraisal that represents an evaluation that an event was caused by oneself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>MFOEM:000078</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>appraisal as caused by an other</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>An appraisal that represents an evaluation that an event was caused by another person.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>MFOEM:000060</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>appraisal of expectedness</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>An affective appraisal that represents an evaluation of whether an event was expected to occur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>BFO:0000031</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>A generically dependent continuant that is about some thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>BCIO:050419</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>BCI selection criterion</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>IAO:0000033</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>An information content entity whose concretizations indicate to their bearer how to realize them in a process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>IAO:0000104</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>OMRSE:00000222</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>debt obligation</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>A directive information entity that prescribes that something will be transferred from some human or organization that is the bearer of a duty holder role to another human or organization that is the bearer of a claimant role.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>OMRSE:00000235</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>A debt obligation between two parties that has part a scalar value specification and whose concretizations indicate that their bearers can be used in a financial transaction or payment of debt, or as a measure of the value of some entity in a financial valuation process or prospective financial valuation process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>IAO:0000007</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>action specification</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>A directive information entity that describes an action the bearer will take.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000456</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>An action specification of a person or organisation that is realised as a set of rules and activities affecting people or organisations under its jurisdiction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001109</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>public policy</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>A policy that is applied by a public body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001273</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>public health promotion policy</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>A public policy that aims to improve the health of a population.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>PDRO:0000117</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>spécification d’intervalle de dose</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>IAO:0000310</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>A collection of information content entities intended to be understood together as a whole</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>IAO:0000088</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>A document assembled by an author for the purpose of providing information for the audience. A report is the output of a documenting process and has the objective to be consumed by a specific audience. Topic of the report is on something that has completed. A report is not a single figure. Examples of reports are journal article, patent application, grant progress report, case report (not patient record).</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>BCIO:021000</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation report</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>A report that is a description of a BCI evaluation study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>BCIO:027000</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario report</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>A report that describes a BCI scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>BCIO:050904</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>BCI contact event number statistic</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>BCIO:050907</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>maximum BCI contact event number</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>BCIO:050912</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>mean BCI contact event number</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>BCIO:050497</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>median BCI contact event number</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BCIO:050502</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>minimum BCI contact event number</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BCIO:050506</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration statistic</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>BCIO:050508</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>maximum BCI temporal part duration</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>BCIO:050512</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>median BCI temporal part duration</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>BCIO:050510</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>mean BCI temporal part duration</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>BCIO:050514</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>minimum BCI temporal part duration</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>BCIO:050905</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>BCI duration statistic</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>BCIO:050498</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>median BCI duration</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>BCIO:050909</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>mean BCI duration</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>BCIO:050908</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>maximum BCI duration</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>BCIO:050501</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>minimum BCI duration</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>BCIO:050516</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>BCIO:050520</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>minimum BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>BCIO:050518</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>mean BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the average value calculated from a collection of BCI temporal part frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>BCIO:050519</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>median BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>BCIO:050517</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>maximum BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>BCIO:035000</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>evaluation finding</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>A data item that is the output of an intervention evaluation study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>BCIO:023000</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>BCIO:017000</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>behaviour change intervention effect estimate</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>BCIO:025000</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome estimate</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>BCIO:008710</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>BCI temporal part frequency</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>How often intervention parts are planned to occur</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>IAO:0000102</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>data about an ontology part</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Data about an ontology part is a data item about a part of an ontology, for example a term</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>IAO:0000078</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>curation status specification</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>The curation status of the term. The allowed values come from an enumerated list of predefined terms. See the specification of these instances for more detailed definitions of each enumerated value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>BCIO:050504</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration statistic</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>BCIO:050495</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>mean total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>BCIO:050910</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>maximum total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>BCIO:050503</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>minimum total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BCIO:050499</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>median total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>BCIO:008515</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>number of BCI contact events</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is the number of contact events in a BCI temporal part.</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>one; 6; 12; twenty</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>The planned total number of sessions or digital contacts in an intervention or part</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>BCIO:050903</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>BCI contact event frequency statistic</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>BCIO:050911</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>mean BCI contact event frequency</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>BCIO:050496</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>median BCI contact event frequency</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>BCIO:050500</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>minimum BCI contact event frequency</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>BCIO:050906</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>maximum BCI contact event frequency</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>BCIO:050505</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>BCI contact event duration statistic</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>BCIO:050509</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>mean BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>BCIO:050507</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>maximum BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>BCIO:050513</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>minimum BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>BCIO:050511</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>median BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>BCIO:008700</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>BCI contact event frequency</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>A &lt;data item&gt; about the number times a contact event occurs per unit of time.</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>twice a week; daily; one a week</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>How often intervention sessions or digital contacts are planned to occur</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000750</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>financial cost of a product or service</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>A data item that is about the amount of money that has to be paid to purchase a product or service</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>BCIO:020000</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study risk of bias or error</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
     </row>

--- a/Schedule/BCIO-schedule-hierarchy.xlsx
+++ b/Schedule/BCIO-schedule-hierarchy.xlsx
@@ -997,7 +997,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
+          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>jouissance</t>
+          <t>Genuss</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4532,14 +4532,14 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Un établissement de santé qui a pour fonction d'entreposer, préparer, distribuer et surveiller l'utilisation des médicaments parmi les patients d'une zone géographique donnée ou suivis dans une organisation de soin donnée.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
@@ -6914,7 +6914,7 @@
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
+          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
@@ -7264,7 +7264,7 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>b is a relational specifically dependent continuant = Def. b is a specifically dependent continuant and there are n &amp;gt; 1 independent continuants c1, … cn which are not spatial regions are such that for all 1  i &amp;lt; j  n, ci  and cj share no common parts, are such that for each 1  i  n, b s-depends_on ci at every time t during the course of b’s existence (axiom label in BFO2 Reference: [131-004])</t>
+          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
-          <t>A bodily disposition is a disposition that inheres in some extended organism. Examples are: my disposition to catch a cold when exposed to a virus, my ability to speak the English language.</t>
+          <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
